--- a/Documentação/Product backlog_Dyeniffer.xlsx
+++ b/Documentação/Product backlog_Dyeniffer.xlsx
@@ -418,98 +418,98 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -814,35 +814,35 @@
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:N16"/>
+      <selection activeCell="A2" sqref="A2:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="28" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="26" t="s">
+      <c r="E2" s="34"/>
+      <c r="F2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="28" t="s">
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="26" t="s">
+      <c r="L2" s="34"/>
+      <c r="M2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="27"/>
+      <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
@@ -850,866 +850,866 @@
         <v>0</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="35"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="14"/>
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="42">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="21">
         <v>1</v>
       </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="24" t="s">
+      <c r="E4" s="22"/>
+      <c r="F4" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="24" t="s">
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="25"/>
-      <c r="M4" s="24" t="s">
+      <c r="L4" s="29"/>
+      <c r="M4" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="25"/>
+      <c r="N4" s="29"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="8">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="23">
         <v>2</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="16" t="s">
+      <c r="E5" s="24"/>
+      <c r="F5" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="16" t="s">
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="18"/>
-      <c r="M5" s="16" t="s">
+      <c r="L5" s="32"/>
+      <c r="M5" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="18"/>
+      <c r="N5" s="32"/>
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="8">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="23">
         <v>3</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="16" t="s">
+      <c r="E6" s="24"/>
+      <c r="F6" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="16" t="s">
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="18"/>
-      <c r="M6" s="16" t="s">
+      <c r="L6" s="32"/>
+      <c r="M6" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="18"/>
+      <c r="N6" s="32"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="8">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="23">
         <v>4</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="8" t="s">
+      <c r="E7" s="24"/>
+      <c r="F7" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="16" t="s">
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="18"/>
-      <c r="M7" s="16" t="s">
+      <c r="L7" s="32"/>
+      <c r="M7" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="18"/>
+      <c r="N7" s="32"/>
       <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="8">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="23">
         <v>5</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="16" t="s">
+      <c r="E8" s="24"/>
+      <c r="F8" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="16" t="s">
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="18"/>
-      <c r="M8" s="16" t="s">
+      <c r="L8" s="32"/>
+      <c r="M8" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="N8" s="18"/>
+      <c r="N8" s="32"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="8">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="23">
         <v>6</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="16" t="s">
+      <c r="E9" s="24"/>
+      <c r="F9" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="16" t="s">
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="L9" s="18"/>
-      <c r="M9" s="16" t="s">
+      <c r="L9" s="32"/>
+      <c r="M9" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="N9" s="18"/>
+      <c r="N9" s="32"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="8">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="23">
         <v>7</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="16" t="s">
+      <c r="E10" s="24"/>
+      <c r="F10" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="16" t="s">
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="18"/>
-      <c r="M10" s="16" t="s">
+      <c r="L10" s="32"/>
+      <c r="M10" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="18"/>
+      <c r="N10" s="32"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="8">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="23">
         <v>8</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="16" t="s">
+      <c r="E11" s="24"/>
+      <c r="F11" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="16" t="s">
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="L11" s="18"/>
-      <c r="M11" s="16" t="s">
+      <c r="L11" s="32"/>
+      <c r="M11" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="18"/>
+      <c r="N11" s="32"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="8">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="23">
         <v>9</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="16" t="s">
+      <c r="E12" s="24"/>
+      <c r="F12" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="16" t="s">
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="18"/>
-      <c r="M12" s="16" t="s">
+      <c r="L12" s="32"/>
+      <c r="M12" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="N12" s="18"/>
+      <c r="N12" s="32"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="8">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="23">
         <v>10</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="16" t="s">
+      <c r="E13" s="24"/>
+      <c r="F13" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="16" t="s">
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="18"/>
-      <c r="M13" s="16" t="s">
+      <c r="L13" s="32"/>
+      <c r="M13" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="N13" s="18"/>
+      <c r="N13" s="32"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="8">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="23">
         <v>11</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="16" t="s">
+      <c r="E14" s="24"/>
+      <c r="F14" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="16" t="s">
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="18"/>
-      <c r="M14" s="16" t="s">
+      <c r="L14" s="32"/>
+      <c r="M14" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="N14" s="18"/>
+      <c r="N14" s="32"/>
     </row>
     <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="39"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="22">
+      <c r="A15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="25">
         <v>12</v>
       </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="19" t="s">
+      <c r="E15" s="26"/>
+      <c r="F15" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="19" t="s">
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="L15" s="21"/>
-      <c r="M15" s="19" t="s">
+      <c r="L15" s="36"/>
+      <c r="M15" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="N15" s="21"/>
+      <c r="N15" s="36"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="15"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="39"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="8">
+      <c r="A17" s="30"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="23">
         <v>13</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="7" t="s">
+      <c r="E17" s="24"/>
+      <c r="F17" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="16" t="s">
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="L17" s="18"/>
-      <c r="M17" s="7" t="s">
+      <c r="L17" s="32"/>
+      <c r="M17" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="N17" s="7"/>
+      <c r="N17" s="41"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="8">
+      <c r="A18" s="30"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="23">
         <v>14</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="7" t="s">
+      <c r="E18" s="24"/>
+      <c r="F18" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="16" t="s">
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="L18" s="18"/>
-      <c r="M18" s="7" t="s">
+      <c r="L18" s="32"/>
+      <c r="M18" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="N18" s="7"/>
+      <c r="N18" s="41"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="8">
+      <c r="A19" s="30"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="23">
         <v>15</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="7" t="s">
+      <c r="E19" s="24"/>
+      <c r="F19" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="16" t="s">
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="L19" s="18"/>
-      <c r="M19" s="7" t="s">
+      <c r="L19" s="32"/>
+      <c r="M19" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="N19" s="7"/>
+      <c r="N19" s="41"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="8">
+      <c r="A20" s="30"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="23">
         <v>16</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="8">
+      <c r="A21" s="30"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="23">
         <v>17</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="8">
+      <c r="A22" s="30"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="23">
         <v>18</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="8">
+      <c r="A23" s="30"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="23">
         <v>19</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="8">
+      <c r="A24" s="30"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="23">
         <v>20</v>
       </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="8">
+      <c r="A25" s="30"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="23">
         <v>21</v>
       </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="8">
+      <c r="A26" s="30"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="23">
         <v>22</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="8">
+      <c r="A27" s="30"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="23">
         <v>23</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="8">
+      <c r="A28" s="30"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="23">
         <v>24</v>
       </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="19"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="22">
+      <c r="A29" s="35"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="25">
         <v>25</v>
       </c>
-      <c r="E29" s="23"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="42"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="15"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="39"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="8">
+      <c r="A31" s="41"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="23">
         <v>26</v>
       </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="8">
+      <c r="A32" s="41"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="23">
         <v>27</v>
       </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="8">
+      <c r="A33" s="41"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="23">
         <v>28</v>
       </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="41"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="8">
+      <c r="A34" s="41"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="23">
         <v>29</v>
       </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="41"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="8">
+      <c r="A35" s="41"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="23">
         <v>30</v>
       </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="41"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="8">
+      <c r="A36" s="41"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="23">
         <v>31</v>
       </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="41"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="8">
+      <c r="A37" s="41"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="23">
         <v>32</v>
       </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="8">
+      <c r="A38" s="41"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="23">
         <v>33</v>
       </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="8">
+      <c r="A39" s="41"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="23">
         <v>34</v>
       </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="8">
+      <c r="A40" s="41"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="23">
         <v>35</v>
       </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="8">
+      <c r="A41" s="41"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="23">
         <v>36</v>
       </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="7"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="8">
+      <c r="A42" s="41"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="23">
         <v>37</v>
       </c>
-      <c r="E42" s="10"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="41"/>
+      <c r="M42" s="41"/>
+      <c r="N42" s="41"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="8">
+      <c r="A43" s="41"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="23">
         <v>38</v>
       </c>
-      <c r="E43" s="10"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="41"/>
+      <c r="M43" s="41"/>
+      <c r="N43" s="41"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="8">
+      <c r="A44" s="41"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="23">
         <v>39</v>
       </c>
-      <c r="E44" s="10"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="41"/>
+      <c r="K44" s="41"/>
+      <c r="L44" s="41"/>
+      <c r="M44" s="41"/>
+      <c r="N44" s="41"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="11">
+      <c r="A45" s="41"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="43">
         <v>40</v>
       </c>
-      <c r="E45" s="11"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="7"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="41"/>
+      <c r="K45" s="41"/>
+      <c r="L45" s="41"/>
+      <c r="M45" s="41"/>
+      <c r="N45" s="41"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
@@ -1729,6 +1729,192 @@
     </row>
   </sheetData>
   <mergeCells count="210">
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="F35:J35"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="F43:J43"/>
+    <mergeCell ref="F44:J44"/>
+    <mergeCell ref="F45:J45"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="F37:J37"/>
+    <mergeCell ref="F38:J38"/>
+    <mergeCell ref="F39:J39"/>
+    <mergeCell ref="F40:J40"/>
+    <mergeCell ref="F41:J41"/>
+    <mergeCell ref="F42:J42"/>
+    <mergeCell ref="F31:J31"/>
+    <mergeCell ref="F32:J32"/>
+    <mergeCell ref="F33:J33"/>
+    <mergeCell ref="F34:J34"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:N30"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="F36:J36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="F29:J29"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:N16"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K2:L2"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D3:N3"/>
@@ -1753,192 +1939,6 @@
     <mergeCell ref="F4:J4"/>
     <mergeCell ref="F6:J6"/>
     <mergeCell ref="F5:J5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:N16"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="F29:J29"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D30:N30"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="F36:J36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="F43:J43"/>
-    <mergeCell ref="F44:J44"/>
-    <mergeCell ref="F45:J45"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="F37:J37"/>
-    <mergeCell ref="F38:J38"/>
-    <mergeCell ref="F39:J39"/>
-    <mergeCell ref="F40:J40"/>
-    <mergeCell ref="F41:J41"/>
-    <mergeCell ref="F42:J42"/>
-    <mergeCell ref="F31:J31"/>
-    <mergeCell ref="F32:J32"/>
-    <mergeCell ref="F33:J33"/>
-    <mergeCell ref="F34:J34"/>
-    <mergeCell ref="F35:J35"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K41:L41"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
